--- a/Configurations/Test/text.xlsx
+++ b/Configurations/Test/text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeyongshan/Documents/GitHub/2023GGJ/Configurations/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23701\Documents\GitHub\2023GGJ\Configurations\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED6D6E3-18D0-AC42-A4D3-4FD381526ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4906E110-D64F-4109-948D-6D9907E8C231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="4260" windowWidth="34220" windowHeight="19600" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17865" yWindow="5040" windowWidth="27195" windowHeight="15435" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>words</t>
-  </si>
-  <si>
-    <t>测试语句1</t>
   </si>
   <si>
     <t>测试语句2</t>
@@ -58,16 +55,20 @@
   <si>
     <t>测试语句5</t>
   </si>
+  <si>
+    <t>测试语句1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -75,13 +76,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -127,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -136,9 +145,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,21 +432,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="99.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="99.375" customWidth="1"/>
+    <col min="4" max="4" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,19 +458,19 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -466,11 +478,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -478,11 +490,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -490,11 +502,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -502,30 +514,838 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>10</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>11</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>11</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>11</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>11</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>11</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>12</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>12</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>12</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>12</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>13</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>13</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>13</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>13</v>
+      </c>
+      <c r="B70" s="2">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>13</v>
+      </c>
+      <c r="B71" s="2">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>14</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>14</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>14</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>14</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>14</v>
+      </c>
+      <c r="B76" s="2">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>15</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>15</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>15</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>15</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>15</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Configurations/Test/text.xlsx
+++ b/Configurations/Test/text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23701\Documents\GitHub\2023GGJ\Configurations\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4906E110-D64F-4109-948D-6D9907E8C231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6325B4-A535-40A9-B21D-CC1FA183B54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="5040" windowWidth="27195" windowHeight="15435" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="4260" windowWidth="27195" windowHeight="15435" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -44,19 +44,55 @@
     <t>words</t>
   </si>
   <si>
-    <t>测试语句2</t>
-  </si>
-  <si>
-    <t>测试语句3</t>
-  </si>
-  <si>
-    <t>测试语句4</t>
-  </si>
-  <si>
-    <t>测试语句5</t>
-  </si>
-  <si>
-    <t>测试语句1</t>
+    <t>还看不出是什么，先给个价格吧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像是个土豆，不值钱。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇！猫眼土豆，给我加钱！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯。。。有点出乎我的意料。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这还不如紫薯精呢吧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是个啥？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像是普通个土豆，不值钱。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯。。。事情越来越有趣了，加钱！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我去！这是惊吓级别为87的惊吓土豆，美味无比，天价啊！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看着像是个胡萝卜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱海绵宝宝，加钱！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额，这是啥？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这。。。这是天价人身果！一个亿！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +141,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -146,6 +188,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -466,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -477,8 +525,8 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -489,8 +537,8 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -501,8 +549,8 @@
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -513,8 +561,8 @@
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -526,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -537,8 +585,8 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -549,8 +597,8 @@
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -561,8 +609,8 @@
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -573,8 +621,8 @@
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,8 +632,8 @@
       <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,8 +643,8 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,8 +654,8 @@
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,8 +665,8 @@
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,8 +676,8 @@
       <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,8 +687,8 @@
       <c r="B17" s="2">
         <v>0</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,8 +698,8 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,8 +709,8 @@
       <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>4</v>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,8 +720,8 @@
       <c r="B20" s="2">
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,8 +731,8 @@
       <c r="B21" s="2">
         <v>4</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,8 +742,8 @@
       <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
+      <c r="C22" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,8 +753,8 @@
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,8 +764,8 @@
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,8 +775,8 @@
       <c r="B25" s="2">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,8 +786,8 @@
       <c r="B26" s="2">
         <v>4</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,8 +797,8 @@
       <c r="B27" s="2">
         <v>0</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>7</v>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,8 +808,8 @@
       <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
+      <c r="C28" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,8 +819,8 @@
       <c r="B29" s="2">
         <v>2</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>4</v>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,8 +830,8 @@
       <c r="B30" s="2">
         <v>3</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,8 +841,8 @@
       <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
+      <c r="C31" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,8 +852,8 @@
       <c r="B32" s="2">
         <v>0</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>7</v>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,8 +863,8 @@
       <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,8 +874,8 @@
       <c r="B34" s="2">
         <v>2</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>4</v>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,8 +885,8 @@
       <c r="B35" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>5</v>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,8 +896,8 @@
       <c r="B36" s="2">
         <v>4</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,8 +907,8 @@
       <c r="B37" s="2">
         <v>0</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>7</v>
+      <c r="C37" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,8 +918,8 @@
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,8 +929,8 @@
       <c r="B39" s="2">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>4</v>
+      <c r="C39" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,8 +940,8 @@
       <c r="B40" s="2">
         <v>3</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
+      <c r="C40" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,8 +951,8 @@
       <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
+      <c r="C41" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,8 +962,8 @@
       <c r="B42" s="2">
         <v>0</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>7</v>
+      <c r="C42" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,8 +973,8 @@
       <c r="B43" s="2">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>3</v>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,8 +984,8 @@
       <c r="B44" s="2">
         <v>2</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>4</v>
+      <c r="C44" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,8 +995,8 @@
       <c r="B45" s="2">
         <v>3</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>5</v>
+      <c r="C45" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,8 +1006,8 @@
       <c r="B46" s="2">
         <v>4</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
+      <c r="C46" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,8 +1017,8 @@
       <c r="B47" s="2">
         <v>0</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>7</v>
+      <c r="C47" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,8 +1028,8 @@
       <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>3</v>
+      <c r="C48" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,8 +1039,8 @@
       <c r="B49" s="2">
         <v>2</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>4</v>
+      <c r="C49" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,8 +1050,8 @@
       <c r="B50" s="2">
         <v>3</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>5</v>
+      <c r="C50" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,8 +1061,8 @@
       <c r="B51" s="2">
         <v>4</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
+      <c r="C51" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,8 +1072,8 @@
       <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>7</v>
+      <c r="C52" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,8 +1083,8 @@
       <c r="B53" s="2">
         <v>1</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>3</v>
+      <c r="C53" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,8 +1094,8 @@
       <c r="B54" s="2">
         <v>2</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>4</v>
+      <c r="C54" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1057,8 +1105,8 @@
       <c r="B55" s="2">
         <v>3</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>5</v>
+      <c r="C55" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,8 +1116,8 @@
       <c r="B56" s="2">
         <v>4</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>6</v>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,8 +1127,8 @@
       <c r="B57" s="2">
         <v>0</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>7</v>
+      <c r="C57" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,8 +1138,8 @@
       <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>3</v>
+      <c r="C58" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,8 +1149,8 @@
       <c r="B59" s="2">
         <v>2</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>4</v>
+      <c r="C59" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,8 +1160,8 @@
       <c r="B60" s="2">
         <v>3</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>5</v>
+      <c r="C60" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1123,8 +1171,8 @@
       <c r="B61" s="2">
         <v>4</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>6</v>
+      <c r="C61" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,8 +1182,8 @@
       <c r="B62" s="2">
         <v>0</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>7</v>
+      <c r="C62" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,8 +1193,8 @@
       <c r="B63" s="2">
         <v>1</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>3</v>
+      <c r="C63" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,8 +1204,8 @@
       <c r="B64" s="2">
         <v>2</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>4</v>
+      <c r="C64" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1167,8 +1215,8 @@
       <c r="B65" s="2">
         <v>3</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>5</v>
+      <c r="C65" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,8 +1226,8 @@
       <c r="B66" s="2">
         <v>4</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>6</v>
+      <c r="C66" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1189,8 +1237,8 @@
       <c r="B67" s="2">
         <v>0</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>7</v>
+      <c r="C67" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1200,8 +1248,8 @@
       <c r="B68" s="2">
         <v>1</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>3</v>
+      <c r="C68" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,8 +1259,8 @@
       <c r="B69" s="2">
         <v>2</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>4</v>
+      <c r="C69" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,8 +1270,8 @@
       <c r="B70" s="2">
         <v>3</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>5</v>
+      <c r="C70" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1233,8 +1281,8 @@
       <c r="B71" s="2">
         <v>4</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>6</v>
+      <c r="C71" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,8 +1292,8 @@
       <c r="B72" s="2">
         <v>0</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>7</v>
+      <c r="C72" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1255,8 +1303,8 @@
       <c r="B73" s="2">
         <v>1</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>3</v>
+      <c r="C73" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,8 +1314,8 @@
       <c r="B74" s="2">
         <v>2</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>4</v>
+      <c r="C74" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,8 +1325,8 @@
       <c r="B75" s="2">
         <v>3</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>5</v>
+      <c r="C75" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,8 +1336,8 @@
       <c r="B76" s="2">
         <v>4</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>6</v>
+      <c r="C76" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,8 +1347,8 @@
       <c r="B77" s="2">
         <v>0</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>7</v>
+      <c r="C77" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,8 +1358,8 @@
       <c r="B78" s="2">
         <v>1</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>3</v>
+      <c r="C78" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,8 +1369,8 @@
       <c r="B79" s="2">
         <v>2</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>4</v>
+      <c r="C79" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,8 +1380,8 @@
       <c r="B80" s="2">
         <v>3</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>5</v>
+      <c r="C80" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,8 +1391,8 @@
       <c r="B81" s="2">
         <v>4</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>6</v>
+      <c r="C81" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Configurations/Test/text.xlsx
+++ b/Configurations/Test/text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23701\Documents\GitHub\2023GGJ\Configurations\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6325B4-A535-40A9-B21D-CC1FA183B54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31764913-8965-4594-816E-FBBFF0DAC684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="4260" windowWidth="27195" windowHeight="15435" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="5190" windowWidth="27195" windowHeight="15435" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="2" r:id="rId1"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我去！这是惊吓级别为87的惊吓土豆，美味无比，天价啊！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>看着像是个胡萝卜。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -93,6 +89,10 @@
   </si>
   <si>
     <t>这。。。这是天价人身果！一个亿！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我去！这是惊吓级别为87的惊吓土豆，美味无比!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -191,9 +191,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +480,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,8 +629,8 @@
       <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -643,8 +640,8 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,8 +651,8 @@
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,7 +662,7 @@
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -676,8 +673,8 @@
       <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
